--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1306800.386156457</v>
+        <v>-1307613.833368344</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954295</v>
+        <v>2927877.345954293</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736556</v>
       </c>
     </row>
     <row r="9">
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1215,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8.913048077374695e-13</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,19 +1370,19 @@
         <v>301.1059717842872</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D11" t="n">
-        <v>41.10334586543175</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564024</v>
+        <v>107.5318301818056</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4070376922379</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>234.9781829577618</v>
@@ -1433,10 +1433,10 @@
         <v>269.9124485024232</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1500,7 +1500,7 @@
         <v>145.9169861849574</v>
       </c>
       <c r="T12" t="n">
-        <v>185.6363186866075</v>
+        <v>185.6363186866066</v>
       </c>
       <c r="U12" t="n">
         <v>216.2908792854683</v>
@@ -1531,22 +1531,22 @@
         <v>78.92267750438477</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.54404190196315</v>
       </c>
       <c r="E13" t="n">
-        <v>61.4917917577426</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.95871608592891</v>
       </c>
       <c r="G13" t="n">
         <v>77.99174215033081</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366594</v>
+        <v>31.70237061143839</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227659</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271699</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>118.363767619385</v>
@@ -1588,13 +1588,13 @@
         <v>169.1308190586099</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>194.2977051292231</v>
       </c>
       <c r="X13" t="n">
         <v>139.9428071250263</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.7192053921508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.105971784287</v>
+        <v>142.429959277626</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419688</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564023</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443794</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>322.4070376922379</v>
       </c>
       <c r="H14" t="n">
-        <v>138.6048907886898</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.3207076824131</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>84.08218037545168</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.7597296842795</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244661</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.912448502423</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351697</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y14" t="n">
-        <v>300.6093045313684</v>
+        <v>300.6093045313686</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898408</v>
+        <v>92.72268265898428</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438457</v>
+        <v>78.92267750438477</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196296</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.4917917577424</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592871</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033061</v>
+        <v>77.99174215033081</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366572</v>
+        <v>66.63306124366594</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271679</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>118.363767619385</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>140.8174128706117</v>
       </c>
       <c r="U16" t="n">
-        <v>195.3080224141331</v>
+        <v>195.3080224141332</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1308190586097</v>
+        <v>169.1308190586099</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2977051292229</v>
+        <v>194.2977051292231</v>
       </c>
       <c r="X16" t="n">
-        <v>139.942807125026</v>
+        <v>98.69719959959663</v>
       </c>
       <c r="Y16" t="n">
-        <v>114.5959281873126</v>
+        <v>130.8176748810939</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1874972305283</v>
+        <v>212.1874972305282</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1688012750565</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9109388449618</v>
+        <v>224.9109388449617</v>
       </c>
       <c r="F17" t="n">
-        <v>244.082754932939</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4772461807972</v>
+        <v>245.4772461807971</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0483914463212</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864011032</v>
+        <v>7.152388864010947</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283889</v>
+        <v>53.8299381728388</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118835</v>
+        <v>86.36645694118826</v>
       </c>
       <c r="V17" t="n">
-        <v>167.6825575130257</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9826569909826</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2829152237292</v>
+        <v>212.2829152237302</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1935,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1529440554385</v>
+        <v>127.1529440554396</v>
       </c>
       <c r="H18" t="n">
         <v>96.15438866313484</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754363</v>
+        <v>15.79289114754354</v>
       </c>
       <c r="C19" t="n">
-        <v>1.99288599294411</v>
+        <v>1.992885992944025</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>138.0471092422575</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890147</v>
+        <v>1.061950638890062</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.37012655389057</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.43397610794437</v>
+        <v>41.43397610794429</v>
       </c>
       <c r="T19" t="n">
-        <v>63.88762135917106</v>
+        <v>63.88762135917097</v>
       </c>
       <c r="U19" t="n">
-        <v>214.0552135910589</v>
+        <v>118.3782309026925</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20102754716922</v>
+        <v>92.20102754716913</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3679136177825</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358559</v>
+        <v>63.01301561358551</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965328</v>
+        <v>53.8878833696532</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1874972305283</v>
+        <v>212.1874972305282</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1688012750563</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9109388449618</v>
+        <v>224.9109388449617</v>
       </c>
       <c r="F20" t="n">
-        <v>244.082754932939</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4772461807972</v>
+        <v>245.4772461807971</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0483914463212</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864011032</v>
+        <v>7.152388864010947</v>
       </c>
       <c r="T20" t="n">
-        <v>53.82993817283889</v>
+        <v>53.8299381728388</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36645694118835</v>
+        <v>86.36645694118826</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6825575130257</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9826569909826</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2829152237292</v>
+        <v>212.2829152237291</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.28834215945722</v>
+        <v>41.28834215945682</v>
       </c>
       <c r="S21" t="n">
         <v>145.9169861849574</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79289114754363</v>
+        <v>15.79289114754354</v>
       </c>
       <c r="C22" t="n">
-        <v>1.99288599294411</v>
+        <v>1.992885992944025</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.061950638890147</v>
+        <v>1.061950638890062</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43397610794437</v>
+        <v>197.3959288546032</v>
       </c>
       <c r="T22" t="n">
-        <v>63.88762135917106</v>
+        <v>63.88762135917097</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3782309026926</v>
+        <v>118.3782309026925</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20102754716922</v>
+        <v>92.20102754716913</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3679136177825</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X22" t="n">
-        <v>218.9749683602438</v>
+        <v>63.01301561358551</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.88788336965328</v>
+        <v>53.8878833696532</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2318,19 @@
         <v>224.1761802728465</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1874972305283</v>
+        <v>212.1874972305282</v>
       </c>
       <c r="D23" t="n">
         <v>203.1688012750562</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9109388449618</v>
+        <v>224.9109388449617</v>
       </c>
       <c r="F23" t="n">
         <v>244.0827549329389</v>
       </c>
       <c r="G23" t="n">
-        <v>245.4772461807972</v>
+        <v>245.4772461807971</v>
       </c>
       <c r="H23" t="n">
         <v>158.0483914463211</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864011003</v>
+        <v>7.152388864010959</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283886</v>
+        <v>53.82993817283881</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36645694118832</v>
+        <v>86.36645694118826</v>
       </c>
       <c r="V23" t="n">
         <v>167.6825575130256</v>
@@ -2381,7 +2381,7 @@
         <v>192.9826569909825</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2829152237292</v>
+        <v>212.2829152237291</v>
       </c>
       <c r="Y23" t="n">
         <v>223.6795130199279</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.7928911475436</v>
+        <v>15.79289114754354</v>
       </c>
       <c r="C25" t="n">
-        <v>1.992885992944082</v>
+        <v>1.992885992944025</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.061950638890119</v>
+        <v>1.061950638890062</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43397610794435</v>
+        <v>60.23602660333461</v>
       </c>
       <c r="T25" t="n">
-        <v>63.88762135917103</v>
+        <v>63.88762135917097</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3782309026926</v>
+        <v>118.3782309026925</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20102754716919</v>
+        <v>92.20102754716913</v>
       </c>
       <c r="W25" t="n">
         <v>117.3679136177824</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01301561358557</v>
+        <v>63.01301561358551</v>
       </c>
       <c r="Y25" t="n">
-        <v>209.8498361163117</v>
+        <v>53.8878833696532</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.6039528668826</v>
+        <v>287.6039528668827</v>
       </c>
       <c r="C26" t="n">
-        <v>275.6152698245643</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D26" t="n">
-        <v>266.5965738690923</v>
+        <v>266.5965738690924</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3387114389978</v>
+        <v>288.338711438998</v>
       </c>
       <c r="F26" t="n">
-        <v>307.510527526975</v>
+        <v>307.5105275269751</v>
       </c>
       <c r="G26" t="n">
-        <v>308.9050187748333</v>
+        <v>308.9050187748334</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4761640403572</v>
+        <v>221.4761640403573</v>
       </c>
       <c r="I26" t="n">
-        <v>47.81868876500847</v>
+        <v>47.81868876500857</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804706</v>
+        <v>70.58016145804716</v>
       </c>
       <c r="T26" t="n">
-        <v>117.2577107668749</v>
+        <v>117.257710766875</v>
       </c>
       <c r="U26" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V26" t="n">
-        <v>231.1103301070617</v>
+        <v>231.1103301070618</v>
       </c>
       <c r="W26" t="n">
-        <v>256.4104295850186</v>
+        <v>256.4104295850187</v>
       </c>
       <c r="X26" t="n">
-        <v>275.7106878177652</v>
+        <v>275.7106878177653</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.107285613964</v>
+        <v>287.1072856139641</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.22066374157966</v>
+        <v>79.22066374157976</v>
       </c>
       <c r="C28" t="n">
-        <v>65.42065858698014</v>
+        <v>65.42065858698024</v>
       </c>
       <c r="D28" t="n">
-        <v>49.04202298455853</v>
+        <v>49.04202298455863</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033798</v>
+        <v>47.98977284033808</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852429</v>
+        <v>48.45669716852439</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292618</v>
+        <v>64.48972323292628</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626131</v>
+        <v>53.13104232626141</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487196</v>
+        <v>32.99398650487206</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531236</v>
+        <v>34.66075099531246</v>
       </c>
       <c r="S28" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T28" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U28" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967287</v>
       </c>
       <c r="V28" t="n">
         <v>155.6288001412053</v>
       </c>
       <c r="W28" t="n">
-        <v>180.7956862118185</v>
+        <v>180.7956862118186</v>
       </c>
       <c r="X28" t="n">
-        <v>126.4407882076216</v>
+        <v>126.4407882076217</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.3156559636893</v>
+        <v>117.3156559636894</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>287.6039528668827</v>
       </c>
       <c r="C29" t="n">
-        <v>275.6152698245645</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D29" t="n">
         <v>266.5965738690924</v>
       </c>
       <c r="E29" t="n">
-        <v>288.338711438998</v>
+        <v>288.3387114389979</v>
       </c>
       <c r="F29" t="n">
         <v>307.5105275269751</v>
       </c>
       <c r="G29" t="n">
-        <v>308.9050187748334</v>
+        <v>308.9050187748333</v>
       </c>
       <c r="H29" t="n">
         <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500856</v>
+        <v>47.81868876500852</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804712</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U29" t="n">
-        <v>149.7942295352245</v>
+        <v>149.7942295352244</v>
       </c>
       <c r="V29" t="n">
         <v>231.1103301070618</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157977</v>
+        <v>79.22066374157973</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698025</v>
+        <v>65.42065858698021</v>
       </c>
       <c r="D31" t="n">
-        <v>49.04202298455864</v>
+        <v>49.0420229845586</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033809</v>
+        <v>47.98977284033805</v>
       </c>
       <c r="F31" t="n">
-        <v>48.4566971685244</v>
+        <v>48.45669716852436</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292629</v>
+        <v>64.48972323292625</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13104232626142</v>
+        <v>53.13104232626137</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487207</v>
+        <v>32.99398650487203</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531247</v>
+        <v>34.66075099531243</v>
       </c>
       <c r="S31" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3153939532072</v>
+        <v>127.3153939532071</v>
       </c>
       <c r="U31" t="n">
         <v>181.8060034967287</v>
       </c>
       <c r="V31" t="n">
-        <v>155.6288001412054</v>
+        <v>155.6288001412053</v>
       </c>
       <c r="W31" t="n">
         <v>180.7956862118186</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287.6039528668825</v>
+        <v>287.6039528668827</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6152698245643</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D32" t="n">
-        <v>266.5965738690923</v>
+        <v>266.5965738690924</v>
       </c>
       <c r="E32" t="n">
-        <v>288.3387114389978</v>
+        <v>288.338711438998</v>
       </c>
       <c r="F32" t="n">
-        <v>307.510527526975</v>
+        <v>307.5105275269751</v>
       </c>
       <c r="G32" t="n">
-        <v>308.9050187748332</v>
+        <v>308.9050187748334</v>
       </c>
       <c r="H32" t="n">
-        <v>221.4761640403572</v>
+        <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500845</v>
+        <v>47.81868876500857</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.58016145804704</v>
+        <v>70.58016145804717</v>
       </c>
       <c r="T32" t="n">
-        <v>117.2577107668749</v>
+        <v>117.257710766875</v>
       </c>
       <c r="U32" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V32" t="n">
-        <v>231.1103301070617</v>
+        <v>231.1103301070618</v>
       </c>
       <c r="W32" t="n">
-        <v>256.4104295850186</v>
+        <v>256.4104295850187</v>
       </c>
       <c r="X32" t="n">
-        <v>275.7106878177652</v>
+        <v>275.7106878177653</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.1072856139639</v>
+        <v>287.1072856139641</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157963</v>
+        <v>79.22066374157976</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698011</v>
+        <v>65.42065858698024</v>
       </c>
       <c r="D34" t="n">
-        <v>49.0420229845585</v>
+        <v>49.04202298455863</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033795</v>
+        <v>47.98977284033808</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852426</v>
+        <v>48.45669716852439</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292615</v>
+        <v>64.48972323292628</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626128</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487193</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531233</v>
+        <v>34.66075099531247</v>
       </c>
       <c r="S34" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T34" t="n">
-        <v>127.315393953207</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U34" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967287</v>
       </c>
       <c r="V34" t="n">
-        <v>155.6288001412052</v>
+        <v>155.6288001412053</v>
       </c>
       <c r="W34" t="n">
-        <v>180.7956862118185</v>
+        <v>180.7956862118186</v>
       </c>
       <c r="X34" t="n">
-        <v>126.4407882076216</v>
+        <v>126.4407882076217</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.3156559636893</v>
+        <v>117.3156559636894</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.5163481499653</v>
+        <v>237.5163481499652</v>
       </c>
       <c r="C35" t="n">
         <v>225.527665107647</v>
       </c>
       <c r="D35" t="n">
-        <v>216.508969152175</v>
+        <v>216.5089691521749</v>
       </c>
       <c r="E35" t="n">
         <v>238.2511067220805</v>
       </c>
       <c r="F35" t="n">
-        <v>257.4229228100577</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G35" t="n">
         <v>258.8174140579159</v>
       </c>
       <c r="H35" t="n">
-        <v>171.3885593234399</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112976</v>
+        <v>20.4925567411297</v>
       </c>
       <c r="T35" t="n">
-        <v>67.17010604995761</v>
+        <v>67.17010604995755</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830706</v>
+        <v>99.70662481830701</v>
       </c>
       <c r="V35" t="n">
-        <v>181.0227253901444</v>
+        <v>181.0227253901443</v>
       </c>
       <c r="W35" t="n">
-        <v>206.3228248681013</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X35" t="n">
         <v>225.6230831008479</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.0196808970467</v>
+        <v>237.0196808970466</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466234</v>
+        <v>29.13305902466229</v>
       </c>
       <c r="C37" t="n">
-        <v>15.33305387006283</v>
+        <v>15.33305387006277</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600886</v>
+        <v>14.40211851600881</v>
       </c>
       <c r="H37" t="n">
-        <v>22.56027397547111</v>
+        <v>3.043437609343937</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.51683636612755</v>
       </c>
       <c r="S37" t="n">
-        <v>54.77414398506309</v>
+        <v>54.77414398506303</v>
       </c>
       <c r="T37" t="n">
-        <v>77.22778923628977</v>
+        <v>77.22778923628971</v>
       </c>
       <c r="U37" t="n">
-        <v>131.7183987798113</v>
+        <v>131.7183987798112</v>
       </c>
       <c r="V37" t="n">
         <v>105.5411954242879</v>
       </c>
       <c r="W37" t="n">
-        <v>130.7080814949012</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X37" t="n">
-        <v>76.35318349070431</v>
+        <v>76.35318349070425</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.228051246772</v>
+        <v>67.22805124677194</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>216.508969152175</v>
       </c>
       <c r="E38" t="n">
-        <v>238.2511067220805</v>
+        <v>238.2511067220806</v>
       </c>
       <c r="F38" t="n">
         <v>257.4229228100577</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112976</v>
+        <v>20.49255674112979</v>
       </c>
       <c r="T38" t="n">
-        <v>67.17010604995761</v>
+        <v>67.17010604995764</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830706</v>
+        <v>99.70662481830709</v>
       </c>
       <c r="V38" t="n">
         <v>181.0227253901444</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466234</v>
+        <v>29.13305902466237</v>
       </c>
       <c r="C40" t="n">
-        <v>15.33305387006283</v>
+        <v>15.33305387006286</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600886</v>
+        <v>14.40211851600889</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343994</v>
+        <v>3.043437609344023</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>19.51683636612664</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.77414398506309</v>
+        <v>54.77414398506312</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628977</v>
+        <v>77.22778923628979</v>
       </c>
       <c r="U40" t="n">
-        <v>151.2352351459384</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V40" t="n">
-        <v>105.5411954242879</v>
+        <v>105.541195424288</v>
       </c>
       <c r="W40" t="n">
         <v>130.7080814949012</v>
       </c>
       <c r="X40" t="n">
-        <v>76.35318349070431</v>
+        <v>76.35318349070434</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.228051246772</v>
+        <v>67.22805124677203</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499653</v>
       </c>
       <c r="C41" t="n">
         <v>225.527665107647</v>
       </c>
       <c r="D41" t="n">
-        <v>216.5089691521749</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E41" t="n">
         <v>238.2511067220805</v>
       </c>
       <c r="F41" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G41" t="n">
         <v>258.8174140579159</v>
       </c>
       <c r="H41" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.49255674112969</v>
+        <v>20.49255674112976</v>
       </c>
       <c r="T41" t="n">
-        <v>67.17010604995754</v>
+        <v>67.17010604995761</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830701</v>
+        <v>99.70662481830706</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W41" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X41" t="n">
         <v>225.6230831008479</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970467</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.13305902466229</v>
+        <v>29.13305902466234</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006277</v>
+        <v>15.33305387006283</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.40211851600881</v>
+        <v>14.40211851600886</v>
       </c>
       <c r="H43" t="n">
-        <v>3.043437609343937</v>
+        <v>3.043437609343994</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440135</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.37613684678924</v>
+        <v>74.29098035119014</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628971</v>
+        <v>77.22778923628977</v>
       </c>
       <c r="U43" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V43" t="n">
         <v>105.5411954242879</v>
       </c>
       <c r="W43" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949012</v>
       </c>
       <c r="X43" t="n">
-        <v>76.35318349070425</v>
+        <v>76.35318349070431</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.22805124677194</v>
+        <v>67.228051246772</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>216.508969152175</v>
       </c>
       <c r="E44" t="n">
-        <v>238.2511067220806</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F44" t="n">
         <v>257.4229228100577</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112979</v>
+        <v>20.49255674112975</v>
       </c>
       <c r="T44" t="n">
-        <v>67.17010604995764</v>
+        <v>67.1701060499576</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830709</v>
+        <v>99.70662481830706</v>
       </c>
       <c r="V44" t="n">
         <v>181.0227253901444</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.13305902466237</v>
+        <v>29.13305902466234</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33305387006286</v>
+        <v>15.33305387006283</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,16 +4147,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600889</v>
+        <v>14.40211851600886</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609344023</v>
+        <v>3.043437609343994</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>19.51683636612712</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.51683636612665</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.77414398506312</v>
+        <v>54.77414398506309</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628979</v>
+        <v>77.22778923628977</v>
       </c>
       <c r="U46" t="n">
         <v>131.7183987798113</v>
       </c>
       <c r="V46" t="n">
-        <v>105.541195424288</v>
+        <v>105.5411954242879</v>
       </c>
       <c r="W46" t="n">
         <v>130.7080814949012</v>
       </c>
       <c r="X46" t="n">
-        <v>76.35318349070434</v>
+        <v>76.35318349070431</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.22805124677203</v>
+        <v>67.228051246772</v>
       </c>
     </row>
   </sheetData>
@@ -4811,22 +4811,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>9.185896487906573e-13</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.368789526168257e-12</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9.003078866035046e-13</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9.003078866035046e-13</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4893,40 +4893,40 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>9.185896487906573e-13</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.368789526168257e-12</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.35964864507468e-12</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>9.003078866035046e-13</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>9.003078866035046e-13</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>9.003078866035046e-13</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>9.003078866035046e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>9.003078866035046e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>9.003078866035046e-13</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>9.003078866035046e-13</v>
       </c>
     </row>
     <row r="10">
@@ -4978,28 +4978,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.35964864507468e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>9.003078866035046e-13</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1021.992959391203</v>
+        <v>1033.50467433686</v>
       </c>
       <c r="C11" t="n">
-        <v>1021.992959391203</v>
+        <v>741.4670089409315</v>
       </c>
       <c r="D11" t="n">
-        <v>980.4744282139993</v>
+        <v>458.5391374394194</v>
       </c>
       <c r="E11" t="n">
-        <v>675.5848015913706</v>
+        <v>349.9211271547665</v>
       </c>
       <c r="F11" t="n">
-        <v>675.5848015913706</v>
+        <v>349.9211271547665</v>
       </c>
       <c r="G11" t="n">
-        <v>349.9211271547666</v>
+        <v>349.9211271547665</v>
       </c>
       <c r="H11" t="n">
         <v>112.5694271974314</v>
       </c>
       <c r="I11" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J11" t="n">
-        <v>167.89857741447</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K11" t="n">
-        <v>475.8880155938955</v>
+        <v>358.6187566067426</v>
       </c>
       <c r="L11" t="n">
-        <v>719.2973161773714</v>
+        <v>790.6768958565436</v>
       </c>
       <c r="M11" t="n">
-        <v>1206.194903144586</v>
+        <v>1277.574482823758</v>
       </c>
       <c r="N11" t="n">
-        <v>1679.700173710447</v>
+        <v>1751.07975338962</v>
       </c>
       <c r="O11" t="n">
-        <v>2074.574784355413</v>
+        <v>2145.954364034586</v>
       </c>
       <c r="P11" t="n">
-        <v>2379.433668932841</v>
+        <v>2450.813248612013</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.465921365857</v>
@@ -5072,19 +5072,19 @@
         <v>2314.453891002492</v>
       </c>
       <c r="U11" t="n">
-        <v>2149.508185494785</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="V11" t="n">
-        <v>1902.42500466199</v>
+        <v>1902.425004661991</v>
       </c>
       <c r="W11" t="n">
-        <v>1629.786167790856</v>
+        <v>1629.786167790857</v>
       </c>
       <c r="X11" t="n">
-        <v>1629.786167790856</v>
+        <v>1337.652120583615</v>
       </c>
       <c r="Y11" t="n">
-        <v>1326.140405637958</v>
+        <v>1337.652120583615</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779667</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189216</v>
       </c>
       <c r="D12" t="n">
         <v>616.2710031091337</v>
@@ -5106,16 +5106,16 @@
         <v>469.2429931660049</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5491951158792</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1118778881636</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H12" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I12" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J12" t="n">
         <v>137.8463925088448</v>
@@ -5124,16 +5124,16 @@
         <v>413.4208828411997</v>
       </c>
       <c r="L12" t="n">
-        <v>841.2082694571445</v>
+        <v>837.8376045017445</v>
       </c>
       <c r="M12" t="n">
-        <v>1398.552487108883</v>
+        <v>1395.181822153483</v>
       </c>
       <c r="N12" t="n">
-        <v>1877.163670256746</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="O12" t="n">
-        <v>2337.264736621381</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P12" t="n">
         <v>2337.264736621381</v>
@@ -5142,10 +5142,10 @@
         <v>2531.465921365857</v>
       </c>
       <c r="R12" t="n">
-        <v>2489.760525245194</v>
+        <v>2489.760525245193</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T12" t="n">
         <v>2154.858197092098</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>385.5134376984291</v>
+        <v>366.911690401101</v>
       </c>
       <c r="C13" t="n">
-        <v>305.7935614313737</v>
+        <v>287.1918141340457</v>
       </c>
       <c r="D13" t="n">
-        <v>305.7935614313737</v>
+        <v>224.0160142330728</v>
       </c>
       <c r="E13" t="n">
-        <v>243.680640463957</v>
+        <v>224.0160142330728</v>
       </c>
       <c r="F13" t="n">
-        <v>243.680640463957</v>
+        <v>161.4314525301143</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9011029383702</v>
+        <v>82.65191500452762</v>
       </c>
       <c r="H13" t="n">
-        <v>97.5949804700208</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I13" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413198</v>
+        <v>96.7900541541317</v>
       </c>
       <c r="K13" t="n">
-        <v>246.2990519958644</v>
+        <v>246.2990519958641</v>
       </c>
       <c r="L13" t="n">
-        <v>470.5847128405361</v>
+        <v>470.5847128405359</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447747</v>
+        <v>714.1904553447746</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068814</v>
+        <v>957.3332466068813</v>
       </c>
       <c r="O13" t="n">
-        <v>1177.722352077498</v>
+        <v>1177.722352077497</v>
       </c>
       <c r="P13" t="n">
         <v>1357.735393016882</v>
@@ -5221,28 +5221,28 @@
         <v>1428.10685896269</v>
       </c>
       <c r="R13" t="n">
-        <v>1379.457596424592</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="S13" t="n">
-        <v>1259.89823519289</v>
+        <v>1308.547497730988</v>
       </c>
       <c r="T13" t="n">
-        <v>1117.658424212475</v>
+        <v>1166.307686750572</v>
       </c>
       <c r="U13" t="n">
-        <v>920.3775934911273</v>
+        <v>969.0268560292259</v>
       </c>
       <c r="V13" t="n">
-        <v>749.5383823208142</v>
+        <v>798.1876448589128</v>
       </c>
       <c r="W13" t="n">
-        <v>749.5383823208142</v>
+        <v>601.9273366475763</v>
       </c>
       <c r="X13" t="n">
-        <v>608.1820114874544</v>
+        <v>460.5709658142164</v>
       </c>
       <c r="Y13" t="n">
-        <v>479.1727131115445</v>
+        <v>460.5709658142164</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1111.816648055035</v>
+        <v>1574.805435907376</v>
       </c>
       <c r="C14" t="n">
-        <v>819.7789826591065</v>
+        <v>1282.767770511448</v>
       </c>
       <c r="D14" t="n">
-        <v>819.7789826591065</v>
+        <v>999.8398990099362</v>
       </c>
       <c r="E14" t="n">
-        <v>514.8893560364779</v>
+        <v>999.8398990099362</v>
       </c>
       <c r="F14" t="n">
-        <v>190.6342586179129</v>
+        <v>675.5848015913709</v>
       </c>
       <c r="G14" t="n">
-        <v>190.6342586179129</v>
+        <v>349.921127154767</v>
       </c>
       <c r="H14" t="n">
-        <v>50.62931842731714</v>
+        <v>112.5694271974314</v>
       </c>
       <c r="I14" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J14" t="n">
-        <v>167.89857741447</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K14" t="n">
-        <v>475.8880155938955</v>
+        <v>358.6187566067426</v>
       </c>
       <c r="L14" t="n">
-        <v>907.9461548436965</v>
+        <v>790.6768958565436</v>
       </c>
       <c r="M14" t="n">
-        <v>1206.194903144586</v>
+        <v>1277.574482823758</v>
       </c>
       <c r="N14" t="n">
-        <v>1679.700173710447</v>
+        <v>1751.07975338962</v>
       </c>
       <c r="O14" t="n">
         <v>2074.574784355413</v>
@@ -5303,25 +5303,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S14" t="n">
-        <v>2531.465921365857</v>
+        <v>2446.534426037118</v>
       </c>
       <c r="T14" t="n">
-        <v>2531.465921365857</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="U14" t="n">
-        <v>2531.465921365857</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="V14" t="n">
-        <v>2284.382740533063</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="W14" t="n">
-        <v>2011.743903661929</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="X14" t="n">
-        <v>1719.609856454686</v>
+        <v>2022.31984379525</v>
       </c>
       <c r="Y14" t="n">
-        <v>1415.964094301789</v>
+        <v>1718.674081642352</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>413.4208828411997</v>
       </c>
       <c r="L15" t="n">
-        <v>571.9377228815839</v>
+        <v>841.2082694571445</v>
       </c>
       <c r="M15" t="n">
-        <v>1129.281940533322</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.772304204091</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O15" t="n">
-        <v>2174.873370568726</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P15" t="n">
-        <v>2531.465921365856</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.465921365856</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>464.3081372596557</v>
+        <v>276.4348546883086</v>
       </c>
       <c r="C16" t="n">
-        <v>384.5882609926006</v>
+        <v>196.7149784212532</v>
       </c>
       <c r="D16" t="n">
-        <v>321.4124610916278</v>
+        <v>196.7149784212532</v>
       </c>
       <c r="E16" t="n">
-        <v>259.2995401242113</v>
+        <v>196.7149784212532</v>
       </c>
       <c r="F16" t="n">
-        <v>196.7149784212529</v>
+        <v>196.7149784212532</v>
       </c>
       <c r="G16" t="n">
-        <v>117.9354408956663</v>
+        <v>117.9354408956666</v>
       </c>
       <c r="H16" t="n">
         <v>50.62931842731714</v>
@@ -5434,52 +5434,52 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413178</v>
+        <v>96.7900541541317</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958644</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L16" t="n">
-        <v>470.5847128405364</v>
+        <v>470.584712840536</v>
       </c>
       <c r="M16" t="n">
-        <v>714.190455344775</v>
+        <v>714.1904553447745</v>
       </c>
       <c r="N16" t="n">
-        <v>957.333246606882</v>
+        <v>957.3332466068812</v>
       </c>
       <c r="O16" t="n">
-        <v>1177.722352077498</v>
+        <v>1177.722352077497</v>
       </c>
       <c r="P16" t="n">
-        <v>1357.735393016882</v>
+        <v>1357.735393016881</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.106858962692</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="R16" t="n">
-        <v>1379.457596424593</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="S16" t="n">
-        <v>1379.457596424593</v>
+        <v>1308.547497730988</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.457596424593</v>
+        <v>1166.307686750572</v>
       </c>
       <c r="U16" t="n">
-        <v>1182.176765703247</v>
+        <v>969.0268560292255</v>
       </c>
       <c r="V16" t="n">
-        <v>1011.337554532934</v>
+        <v>798.1876448589126</v>
       </c>
       <c r="W16" t="n">
-        <v>815.0772463215978</v>
+        <v>601.9273366475761</v>
       </c>
       <c r="X16" t="n">
-        <v>673.7208754882382</v>
+        <v>502.2331956378825</v>
       </c>
       <c r="Y16" t="n">
-        <v>557.9674126727709</v>
+        <v>370.0941301014241</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.513793084493</v>
+        <v>1351.513793084492</v>
       </c>
       <c r="C17" t="n">
         <v>1137.182987801131</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121849</v>
+        <v>931.961976412185</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021225</v>
+        <v>704.7792099021226</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961235</v>
+        <v>458.2309725961238</v>
       </c>
       <c r="G17" t="n">
-        <v>210.274158272086</v>
+        <v>210.2741582720859</v>
       </c>
       <c r="H17" t="n">
         <v>50.62931842731714</v>
@@ -5516,13 +5516,13 @@
         <v>50.62931842731714</v>
       </c>
       <c r="K17" t="n">
-        <v>358.6187566067426</v>
+        <v>287.2391769275704</v>
       </c>
       <c r="L17" t="n">
-        <v>790.6768958565436</v>
+        <v>719.2973161773714</v>
       </c>
       <c r="M17" t="n">
-        <v>1277.574482823758</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N17" t="n">
         <v>1679.700173710447</v>
@@ -5549,10 +5549,10 @@
         <v>2382.628765832485</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.252445112256</v>
+        <v>2213.252445112257</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.320468353688</v>
+        <v>2018.320468353689</v>
       </c>
       <c r="X17" t="n">
         <v>1803.893281259012</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.813312877967</v>
+        <v>916.813312877968</v>
       </c>
       <c r="C18" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189227</v>
       </c>
       <c r="D18" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091348</v>
       </c>
       <c r="E18" t="n">
-        <v>469.2429931660049</v>
+        <v>469.242993166006</v>
       </c>
       <c r="F18" t="n">
-        <v>334.5491951158792</v>
+        <v>334.5491951158804</v>
       </c>
       <c r="G18" t="n">
         <v>206.1118778881636</v>
@@ -5592,52 +5592,52 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J18" t="n">
-        <v>137.8463925088448</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K18" t="n">
-        <v>413.4208828411997</v>
+        <v>326.2038087596721</v>
       </c>
       <c r="L18" t="n">
-        <v>841.2082694571445</v>
+        <v>753.9911953756169</v>
       </c>
       <c r="M18" t="n">
-        <v>1398.552487108883</v>
+        <v>1311.335413027355</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.571119459615</v>
+        <v>1714.772304204092</v>
       </c>
       <c r="O18" t="n">
-        <v>1980.672185824251</v>
+        <v>2174.873370568727</v>
       </c>
       <c r="P18" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q18" t="n">
-        <v>2531.465921365856</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="R18" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245194</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T18" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V18" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X18" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y18" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.51311962501897</v>
+        <v>193.1565364819552</v>
       </c>
       <c r="C19" t="n">
-        <v>94.50010347052998</v>
+        <v>191.1435203274663</v>
       </c>
       <c r="D19" t="n">
-        <v>94.50010347052998</v>
+        <v>51.7019958403374</v>
       </c>
       <c r="E19" t="n">
-        <v>94.50010347052998</v>
+        <v>51.7019958403374</v>
       </c>
       <c r="F19" t="n">
-        <v>94.50010347052998</v>
+        <v>51.7019958403374</v>
       </c>
       <c r="G19" t="n">
-        <v>93.42742605750963</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H19" t="n">
-        <v>93.42742605750963</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I19" t="n">
-        <v>93.42742605750963</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J19" t="n">
         <v>50.62931842731714</v>
@@ -5701,22 +5701,22 @@
         <v>722.9833885603363</v>
       </c>
       <c r="T19" t="n">
-        <v>658.4504376924867</v>
+        <v>658.4504376924868</v>
       </c>
       <c r="U19" t="n">
-        <v>442.2330502267707</v>
+        <v>538.8764670837065</v>
       </c>
       <c r="V19" t="n">
-        <v>349.100699169024</v>
+        <v>445.7441160259599</v>
       </c>
       <c r="W19" t="n">
-        <v>230.5472510702538</v>
+        <v>327.1906679271898</v>
       </c>
       <c r="X19" t="n">
-        <v>166.8977403494603</v>
+        <v>263.5411572063963</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.4655349255681</v>
+        <v>209.1089517825042</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5735,13 @@
         <v>931.9619764121855</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021231</v>
+        <v>704.7792099021232</v>
       </c>
       <c r="F20" t="n">
-        <v>458.230972596124</v>
+        <v>458.2309725961243</v>
       </c>
       <c r="G20" t="n">
-        <v>210.274158272086</v>
+        <v>210.2741582720859</v>
       </c>
       <c r="H20" t="n">
         <v>50.62931842731713</v>
@@ -5753,22 +5753,22 @@
         <v>167.89857741447</v>
       </c>
       <c r="K20" t="n">
-        <v>287.2391769275699</v>
+        <v>475.8880155938955</v>
       </c>
       <c r="L20" t="n">
-        <v>719.2973161773709</v>
+        <v>907.9461548436965</v>
       </c>
       <c r="M20" t="n">
-        <v>1206.194903144586</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N20" t="n">
-        <v>1679.700173710447</v>
+        <v>1868.349012376772</v>
       </c>
       <c r="O20" t="n">
-        <v>2074.574784355413</v>
+        <v>2263.223623021738</v>
       </c>
       <c r="P20" t="n">
-        <v>2379.433668932841</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.465921365857</v>
@@ -5795,7 +5795,7 @@
         <v>1803.893281259013</v>
       </c>
       <c r="Y20" t="n">
-        <v>1577.954379218682</v>
+        <v>1577.954379218681</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779667</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189216</v>
       </c>
       <c r="D21" t="n">
         <v>616.2710031091337</v>
@@ -5817,10 +5817,10 @@
         <v>469.2429931660049</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5491951158792</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1118778881636</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H21" t="n">
         <v>108.986232773886</v>
@@ -5829,16 +5829,16 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J21" t="n">
-        <v>50.62931842731713</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K21" t="n">
-        <v>326.2038087596721</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L21" t="n">
-        <v>753.9911953756169</v>
+        <v>841.2082694571445</v>
       </c>
       <c r="M21" t="n">
-        <v>1311.335413027355</v>
+        <v>935.0807557888472</v>
       </c>
       <c r="N21" t="n">
         <v>1520.571119459616</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.71501199482648</v>
+        <v>53.71501199482631</v>
       </c>
       <c r="C22" t="n">
-        <v>51.70199584033748</v>
+        <v>51.7019958403374</v>
       </c>
       <c r="D22" t="n">
-        <v>51.70199584033748</v>
+        <v>51.7019958403374</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70199584033748</v>
+        <v>51.7019958403374</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70199584033748</v>
+        <v>51.7019958403374</v>
       </c>
       <c r="G22" t="n">
         <v>50.62931842731713</v>
@@ -5935,25 +5935,25 @@
         <v>782.9316911990693</v>
       </c>
       <c r="S22" t="n">
-        <v>741.0791900799336</v>
+        <v>583.5418640732074</v>
       </c>
       <c r="T22" t="n">
-        <v>676.5462392120841</v>
+        <v>519.008913205358</v>
       </c>
       <c r="U22" t="n">
-        <v>556.9722686033036</v>
+        <v>399.4349425965777</v>
       </c>
       <c r="V22" t="n">
-        <v>463.8399175455569</v>
+        <v>306.3025915388311</v>
       </c>
       <c r="W22" t="n">
-        <v>345.2864694467868</v>
+        <v>187.7491434400609</v>
       </c>
       <c r="X22" t="n">
-        <v>124.0996327192678</v>
+        <v>124.0996327192675</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.6674272953756</v>
+        <v>69.66742729537535</v>
       </c>
     </row>
     <row r="23">
@@ -5963,64 +5963,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1351.513793084493</v>
+        <v>1351.513793084492</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.182987801131</v>
+        <v>1137.18298780113</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121853</v>
+        <v>931.9619764121844</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021229</v>
+        <v>704.779209902122</v>
       </c>
       <c r="F23" t="n">
-        <v>458.230972596124</v>
+        <v>458.2309725961231</v>
       </c>
       <c r="G23" t="n">
-        <v>210.274158272086</v>
+        <v>210.2741582720859</v>
       </c>
       <c r="H23" t="n">
-        <v>50.62931842731713</v>
+        <v>50.6293184273171</v>
       </c>
       <c r="I23" t="n">
-        <v>50.62931842731713</v>
+        <v>50.6293184273171</v>
       </c>
       <c r="J23" t="n">
-        <v>167.89857741447</v>
+        <v>50.6293184273171</v>
       </c>
       <c r="K23" t="n">
-        <v>475.8880155938955</v>
+        <v>287.2391769275686</v>
       </c>
       <c r="L23" t="n">
-        <v>907.9461548436965</v>
+        <v>719.2973161773696</v>
       </c>
       <c r="M23" t="n">
-        <v>1394.843741810911</v>
+        <v>1206.194903144584</v>
       </c>
       <c r="N23" t="n">
-        <v>1831.732426143463</v>
+        <v>1679.700173710446</v>
       </c>
       <c r="O23" t="n">
-        <v>2226.607036788429</v>
+        <v>2074.574784355411</v>
       </c>
       <c r="P23" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932839</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365855</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365855</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149684</v>
+        <v>2524.241286149682</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.867611227624</v>
+        <v>2469.867611227623</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.628765832485</v>
+        <v>2382.628765832484</v>
       </c>
       <c r="V23" t="n">
         <v>2213.252445112256</v>
@@ -6032,7 +6032,7 @@
         <v>1803.893281259012</v>
       </c>
       <c r="Y23" t="n">
-        <v>1577.954379218681</v>
+        <v>1577.95437921868</v>
       </c>
     </row>
     <row r="24">
@@ -6042,70 +6042,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.8133128779672</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C24" t="n">
-        <v>755.109640118922</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D24" t="n">
-        <v>616.2710031091342</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2429931660054</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5491951158797</v>
+        <v>334.5491951158792</v>
       </c>
       <c r="G24" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881636</v>
       </c>
       <c r="H24" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I24" t="n">
-        <v>50.62931842731713</v>
+        <v>50.6293184273171</v>
       </c>
       <c r="J24" t="n">
-        <v>137.8463925088448</v>
+        <v>50.6293184273171</v>
       </c>
       <c r="K24" t="n">
-        <v>306.5417023182936</v>
+        <v>144.1503362656391</v>
       </c>
       <c r="L24" t="n">
-        <v>734.3290889342385</v>
+        <v>571.9377228815839</v>
       </c>
       <c r="M24" t="n">
-        <v>1291.673306585977</v>
+        <v>1129.281940533322</v>
       </c>
       <c r="N24" t="n">
-        <v>1877.163670256745</v>
+        <v>1714.772304204091</v>
       </c>
       <c r="O24" t="n">
-        <v>2337.264736621381</v>
+        <v>2174.873370568726</v>
       </c>
       <c r="P24" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R24" t="n">
         <v>2489.760525245193</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T24" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V24" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X24" t="n">
         <v>1268.754082009649</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.71501199482643</v>
+        <v>53.71501199482628</v>
       </c>
       <c r="C25" t="n">
-        <v>51.70199584033745</v>
+        <v>51.70199584033737</v>
       </c>
       <c r="D25" t="n">
-        <v>51.70199584033745</v>
+        <v>51.70199584033737</v>
       </c>
       <c r="E25" t="n">
-        <v>51.70199584033745</v>
+        <v>51.70199584033737</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70199584033745</v>
+        <v>51.70199584033737</v>
       </c>
       <c r="G25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.6293184273171</v>
       </c>
       <c r="H25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.6293184273171</v>
       </c>
       <c r="I25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.6293184273171</v>
       </c>
       <c r="J25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.6293184273171</v>
       </c>
       <c r="K25" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L25" t="n">
-        <v>248.209655083389</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M25" t="n">
         <v>403.7082365724613</v>
@@ -6169,28 +6169,28 @@
         <v>782.9316911990693</v>
       </c>
       <c r="R25" t="n">
-        <v>782.9316911990693</v>
+        <v>644.3863353897069</v>
       </c>
       <c r="S25" t="n">
-        <v>741.0791900799336</v>
+        <v>583.5418640732073</v>
       </c>
       <c r="T25" t="n">
-        <v>676.5462392120841</v>
+        <v>519.0089132053579</v>
       </c>
       <c r="U25" t="n">
-        <v>556.9722686033037</v>
+        <v>399.4349425965776</v>
       </c>
       <c r="V25" t="n">
-        <v>463.8399175455571</v>
+        <v>306.302591538831</v>
       </c>
       <c r="W25" t="n">
-        <v>345.286469446787</v>
+        <v>187.7491434400609</v>
       </c>
       <c r="X25" t="n">
-        <v>281.6369587259935</v>
+        <v>124.0996327192674</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.66742729537552</v>
+        <v>69.66742729537532</v>
       </c>
     </row>
     <row r="26">
@@ -6212,52 +6212,52 @@
         <v>964.5773097967881</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9606153250963</v>
+        <v>653.9606153250966</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353658</v>
+        <v>341.9353438353659</v>
       </c>
       <c r="H26" t="n">
-        <v>118.2220468249038</v>
+        <v>118.2220468249039</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J26" t="n">
-        <v>288.6637597322126</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K26" t="n">
-        <v>698.127357655035</v>
+        <v>698.1273576550348</v>
       </c>
       <c r="L26" t="n">
-        <v>1130.332581610932</v>
+        <v>1231.659656648233</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.704328321544</v>
+        <v>1718.704328321545</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.683758630802</v>
+        <v>2293.683758630803</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.032529019164</v>
+        <v>2790.032529019165</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.365573339989</v>
+        <v>3196.36557333999</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516402</v>
+        <v>3449.871985516403</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083145</v>
+        <v>3496.017050083146</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.723957701279</v>
+        <v>3424.72395770128</v>
       </c>
       <c r="T26" t="n">
         <v>3306.281825613527</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.974523052694</v>
+        <v>3154.974523052695</v>
       </c>
       <c r="V26" t="n">
         <v>2921.529745166773</v>
@@ -6269,7 +6269,7 @@
         <v>2384.033666982143</v>
       </c>
       <c r="Y26" t="n">
-        <v>2094.026307776118</v>
+        <v>2094.026307776119</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J27" t="n">
-        <v>157.1374150831905</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="K27" t="n">
-        <v>432.7119054155455</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="L27" t="n">
-        <v>860.4992920314903</v>
+        <v>397.0275607114542</v>
       </c>
       <c r="M27" t="n">
-        <v>1417.843509683229</v>
+        <v>954.3717783631926</v>
       </c>
       <c r="N27" t="n">
         <v>1539.862142033961</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0960012485926</v>
+        <v>435.0960012485936</v>
       </c>
       <c r="C28" t="n">
-        <v>369.0145279284106</v>
+        <v>369.0145279284115</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4771309743111</v>
+        <v>319.4771309743119</v>
       </c>
       <c r="E28" t="n">
-        <v>271.0026129537677</v>
+        <v>271.0026129537683</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0564541976826</v>
+        <v>222.0564541976831</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9153196189692</v>
+        <v>156.9153196189696</v>
       </c>
       <c r="H28" t="n">
-        <v>103.2476000974932</v>
+        <v>103.2476000974933</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J28" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567081</v>
       </c>
       <c r="K28" t="n">
-        <v>292.324072026671</v>
+        <v>292.3240720266709</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9767315995734</v>
+        <v>529.9767315995732</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320426</v>
+        <v>786.9494728320423</v>
       </c>
       <c r="N28" t="n">
         <v>1043.45926282238</v>
       </c>
       <c r="O28" t="n">
-        <v>1277.215367021227</v>
+        <v>1277.215367021226</v>
       </c>
       <c r="P28" t="n">
-        <v>1470.595406688839</v>
+        <v>1470.595406688841</v>
       </c>
       <c r="Q28" t="n">
-        <v>1554.333871362878</v>
+        <v>1554.33387136288</v>
       </c>
       <c r="R28" t="n">
-        <v>1519.323011771654</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.402053486825</v>
+        <v>1413.402053486826</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.800645453283</v>
+        <v>1284.800645453284</v>
       </c>
       <c r="U28" t="n">
-        <v>1101.158217678809</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V28" t="n">
-        <v>943.9574094553695</v>
+        <v>943.9574094553705</v>
       </c>
       <c r="W28" t="n">
-        <v>761.3355041909064</v>
+        <v>761.3355041909072</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044199</v>
+        <v>633.6175363044206</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148347</v>
+        <v>515.1168737148357</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5773097967883</v>
+        <v>964.5773097967895</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9606153250962</v>
+        <v>653.9606153250975</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353655</v>
+        <v>341.9353438353657</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I29" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J29" t="n">
-        <v>288.6637597322125</v>
+        <v>288.6637597322126</v>
       </c>
       <c r="K29" t="n">
-        <v>698.1273576550348</v>
+        <v>698.127357655035</v>
       </c>
       <c r="L29" t="n">
         <v>1231.659656648233</v>
@@ -6476,37 +6476,37 @@
         <v>2395.010833668102</v>
       </c>
       <c r="O29" t="n">
-        <v>2891.359604056464</v>
+        <v>2891.359604056465</v>
       </c>
       <c r="P29" t="n">
-        <v>3297.692648377289</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.871985516402</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.017050083145</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T29" t="n">
-        <v>3306.281825613527</v>
+        <v>3306.281825613528</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X29" t="n">
         <v>2384.033666982144</v>
       </c>
       <c r="Y29" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.02630777612</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I30" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J30" t="n">
-        <v>157.1374150831906</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="K30" t="n">
-        <v>432.7119054155456</v>
+        <v>345.4948313340179</v>
       </c>
       <c r="L30" t="n">
-        <v>860.4992920314905</v>
+        <v>591.2287454559297</v>
       </c>
       <c r="M30" t="n">
-        <v>1417.843509683229</v>
+        <v>1148.572963107668</v>
       </c>
       <c r="N30" t="n">
-        <v>1539.862142033961</v>
+        <v>1734.063326778436</v>
       </c>
       <c r="O30" t="n">
-        <v>1999.963208398597</v>
+        <v>2194.164393143072</v>
       </c>
       <c r="P30" t="n">
-        <v>2356.555759195726</v>
+        <v>2550.756943940202</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.756943940202</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485933</v>
+        <v>435.0960012485932</v>
       </c>
       <c r="C31" t="n">
         <v>369.0145279284112</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4771309743116</v>
+        <v>319.4771309743115</v>
       </c>
       <c r="E31" t="n">
         <v>271.0026129537681</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976828</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G31" t="n">
         <v>156.9153196189694</v>
       </c>
       <c r="H31" t="n">
-        <v>103.2476000974932</v>
+        <v>103.2476000974933</v>
       </c>
       <c r="I31" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J31" t="n">
-        <v>129.4480754567076</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K31" t="n">
-        <v>292.3240720266705</v>
+        <v>292.3240720266709</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9767315995729</v>
+        <v>529.9767315995732</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320421</v>
+        <v>786.949472832042</v>
       </c>
       <c r="N31" t="n">
         <v>1043.459262822379</v>
@@ -6640,7 +6640,7 @@
         <v>1470.59540668884</v>
       </c>
       <c r="Q31" t="n">
-        <v>1554.33387136288</v>
+        <v>1554.333871362879</v>
       </c>
       <c r="R31" t="n">
         <v>1519.323011771655</v>
@@ -6658,13 +6658,13 @@
         <v>943.9574094553705</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3355041909072</v>
+        <v>761.3355041909073</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044206</v>
+        <v>633.6175363044207</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148355</v>
+        <v>515.1168737148354</v>
       </c>
     </row>
     <row r="32">
@@ -6683,25 +6683,25 @@
         <v>1255.828533472544</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967885</v>
+        <v>964.5773097967883</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250968</v>
+        <v>653.9606153250962</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353662</v>
+        <v>341.9353438353655</v>
       </c>
       <c r="H32" t="n">
-        <v>118.2220468249038</v>
+        <v>118.2220468249039</v>
       </c>
       <c r="I32" t="n">
         <v>69.92034100166291</v>
       </c>
       <c r="J32" t="n">
-        <v>288.6637597322126</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K32" t="n">
-        <v>698.127357655035</v>
+        <v>698.1273576550348</v>
       </c>
       <c r="L32" t="n">
         <v>1231.659656648233</v>
@@ -6731,10 +6731,10 @@
         <v>3306.281825613527</v>
       </c>
       <c r="U32" t="n">
-        <v>3154.974523052694</v>
+        <v>3154.974523052695</v>
       </c>
       <c r="V32" t="n">
-        <v>2921.529745166773</v>
+        <v>2921.529745166774</v>
       </c>
       <c r="W32" t="n">
         <v>2662.529311242512</v>
@@ -6777,25 +6777,25 @@
         <v>69.92034100166291</v>
       </c>
       <c r="J33" t="n">
-        <v>157.1374150831905</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="K33" t="n">
-        <v>432.7119054155455</v>
+        <v>163.4413588399848</v>
       </c>
       <c r="L33" t="n">
-        <v>860.4992920314903</v>
+        <v>591.2287454559297</v>
       </c>
       <c r="M33" t="n">
-        <v>1417.843509683229</v>
+        <v>1148.572963107668</v>
       </c>
       <c r="N33" t="n">
-        <v>1539.862142033961</v>
+        <v>1734.063326778436</v>
       </c>
       <c r="O33" t="n">
-        <v>1999.963208398597</v>
+        <v>2194.164393143072</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.555759195726</v>
+        <v>2550.756943940202</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.756943940202</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485924</v>
+        <v>435.0960012485929</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0145279284105</v>
+        <v>369.0145279284108</v>
       </c>
       <c r="D34" t="n">
-        <v>319.477130974311</v>
+        <v>319.4771309743112</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537676</v>
+        <v>271.0026129537677</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0564541976825</v>
+        <v>222.0564541976824</v>
       </c>
       <c r="G34" t="n">
-        <v>156.9153196189692</v>
+        <v>156.915319618969</v>
       </c>
       <c r="H34" t="n">
-        <v>103.2476000974931</v>
+        <v>103.2476000974933</v>
       </c>
       <c r="I34" t="n">
         <v>69.92034100166291</v>
       </c>
       <c r="J34" t="n">
-        <v>129.4480754567081</v>
+        <v>129.4480754567079</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266682</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995706</v>
+        <v>529.9767315995731</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320398</v>
+        <v>786.9494728320419</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.459262822377</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O34" t="n">
-        <v>1277.215367021224</v>
+        <v>1277.215367021226</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.595406688838</v>
+        <v>1470.59540668884</v>
       </c>
       <c r="Q34" t="n">
-        <v>1554.333871362878</v>
+        <v>1554.333871362879</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.323011771653</v>
+        <v>1519.323011771654</v>
       </c>
       <c r="S34" t="n">
         <v>1413.402053486825</v>
       </c>
       <c r="T34" t="n">
-        <v>1284.800645453282</v>
+        <v>1284.800645453283</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.158217678809</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553691</v>
+        <v>943.95740945537</v>
       </c>
       <c r="W34" t="n">
-        <v>761.335504190906</v>
+        <v>761.3355041909067</v>
       </c>
       <c r="X34" t="n">
-        <v>633.6175363044196</v>
+        <v>633.6175363044204</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148345</v>
+        <v>515.116873714835</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1436.213271669374</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338418</v>
       </c>
       <c r="D35" t="n">
-        <v>989.7116209018766</v>
+        <v>989.7116209018773</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442195</v>
+        <v>749.0539373442202</v>
       </c>
       <c r="F35" t="n">
-        <v>489.030782990626</v>
+        <v>489.0307829906267</v>
       </c>
       <c r="G35" t="n">
         <v>227.5990516189934</v>
@@ -6935,19 +6935,19 @@
         <v>54.4792947266299</v>
       </c>
       <c r="J35" t="n">
-        <v>171.7485537137827</v>
+        <v>171.7485537137832</v>
       </c>
       <c r="K35" t="n">
-        <v>479.7379918932082</v>
+        <v>479.7379918932088</v>
       </c>
       <c r="L35" t="n">
-        <v>911.7961311430092</v>
+        <v>911.7961311430097</v>
       </c>
       <c r="M35" t="n">
         <v>1398.693718110224</v>
       </c>
       <c r="N35" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676086</v>
       </c>
       <c r="O35" t="n">
         <v>2267.073599321051</v>
@@ -7014,25 +7014,25 @@
         <v>54.4792947266299</v>
       </c>
       <c r="J36" t="n">
-        <v>141.6963688081576</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="K36" t="n">
-        <v>417.2708591405125</v>
+        <v>330.0537850589849</v>
       </c>
       <c r="L36" t="n">
-        <v>845.0582457564574</v>
+        <v>757.8411716749297</v>
       </c>
       <c r="M36" t="n">
-        <v>1402.402463408196</v>
+        <v>1315.185389326668</v>
       </c>
       <c r="N36" t="n">
-        <v>1524.421095758928</v>
+        <v>1718.622280503403</v>
       </c>
       <c r="O36" t="n">
-        <v>1984.522162123563</v>
+        <v>2178.723346868039</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.114712920693</v>
+        <v>2535.315897665168</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.315897665168</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.3029779201075</v>
+        <v>87.58900179270617</v>
       </c>
       <c r="C37" t="n">
-        <v>91.81504471802381</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="D37" t="n">
-        <v>91.81504471802381</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="E37" t="n">
-        <v>91.81504471802381</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="F37" t="n">
-        <v>91.81504471802381</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="G37" t="n">
-        <v>77.2674502574088</v>
+        <v>57.55347413000761</v>
       </c>
       <c r="H37" t="n">
         <v>54.4792947266299</v>
@@ -7117,28 +7117,28 @@
         <v>786.781667498382</v>
       </c>
       <c r="R37" t="n">
-        <v>786.781667498382</v>
+        <v>767.0676913709805</v>
       </c>
       <c r="S37" t="n">
-        <v>731.4542493316517</v>
+        <v>711.7402732042501</v>
       </c>
       <c r="T37" t="n">
-        <v>653.4463814162075</v>
+        <v>633.7324052888059</v>
       </c>
       <c r="U37" t="n">
-        <v>520.3974937598325</v>
+        <v>500.6835176324309</v>
       </c>
       <c r="V37" t="n">
-        <v>413.7902256544912</v>
+        <v>394.0762495270897</v>
       </c>
       <c r="W37" t="n">
-        <v>281.7618605081263</v>
+        <v>262.0478843807248</v>
       </c>
       <c r="X37" t="n">
-        <v>204.6374327397381</v>
+        <v>184.9234566123367</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.7303102682513</v>
+        <v>117.0163341408499</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669374</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018759</v>
+        <v>989.7116209018766</v>
       </c>
       <c r="E38" t="n">
-        <v>749.0539373442189</v>
+        <v>749.0539373442194</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906251</v>
+        <v>489.0307829906258</v>
       </c>
       <c r="G38" t="n">
-        <v>227.5990516189934</v>
+        <v>227.5990516189935</v>
       </c>
       <c r="H38" t="n">
         <v>54.4792947266299</v>
@@ -7205,19 +7205,19 @@
         <v>2635.416592098073</v>
       </c>
       <c r="U38" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655339</v>
       </c>
       <c r="V38" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887516</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081354</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939083</v>
       </c>
       <c r="Y38" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851157</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>54.4792947266299</v>
       </c>
       <c r="J39" t="n">
-        <v>141.6963688081576</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="K39" t="n">
-        <v>417.2708591405125</v>
+        <v>148.0003125649515</v>
       </c>
       <c r="L39" t="n">
-        <v>845.0582457564574</v>
+        <v>575.7876991808963</v>
       </c>
       <c r="M39" t="n">
-        <v>1402.402463408196</v>
+        <v>1133.131916832635</v>
       </c>
       <c r="N39" t="n">
-        <v>1524.421095758928</v>
+        <v>1718.622280503403</v>
       </c>
       <c r="O39" t="n">
-        <v>1984.522162123563</v>
+        <v>2178.723346868039</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.114712920693</v>
+        <v>2535.315897665168</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.315897665168</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.58900179270634</v>
+        <v>107.3029779201071</v>
       </c>
       <c r="C40" t="n">
-        <v>72.10106859062267</v>
+        <v>91.81504471802339</v>
       </c>
       <c r="D40" t="n">
-        <v>72.10106859062267</v>
+        <v>91.81504471802339</v>
       </c>
       <c r="E40" t="n">
-        <v>72.10106859062267</v>
+        <v>91.81504471802339</v>
       </c>
       <c r="F40" t="n">
-        <v>72.10106859062267</v>
+        <v>91.81504471802339</v>
       </c>
       <c r="G40" t="n">
-        <v>57.55347413000766</v>
+        <v>77.26745025740834</v>
       </c>
       <c r="H40" t="n">
-        <v>54.4792947266299</v>
+        <v>74.19327085403054</v>
       </c>
       <c r="I40" t="n">
-        <v>54.4792947266299</v>
+        <v>74.19327085403054</v>
       </c>
       <c r="J40" t="n">
         <v>54.4792947266299</v>
@@ -7357,25 +7357,25 @@
         <v>786.781667498382</v>
       </c>
       <c r="S40" t="n">
-        <v>731.4542493316517</v>
+        <v>731.4542493316516</v>
       </c>
       <c r="T40" t="n">
-        <v>653.4463814162075</v>
+        <v>653.4463814162074</v>
       </c>
       <c r="U40" t="n">
-        <v>500.6835176324313</v>
+        <v>520.3974937598323</v>
       </c>
       <c r="V40" t="n">
-        <v>394.07624952709</v>
+        <v>413.7902256544909</v>
       </c>
       <c r="W40" t="n">
-        <v>262.0478843807252</v>
+        <v>281.761860508126</v>
       </c>
       <c r="X40" t="n">
-        <v>184.923456612337</v>
+        <v>204.6374327397378</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.0163341408501</v>
+        <v>136.7303102682509</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>1436.213271669374</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.407549338418</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018772</v>
+        <v>989.7116209018766</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442201</v>
+        <v>749.0539373442195</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906264</v>
+        <v>489.030782990626</v>
       </c>
       <c r="G41" t="n">
         <v>227.5990516189934</v>
@@ -7409,13 +7409,13 @@
         <v>54.4792947266299</v>
       </c>
       <c r="J41" t="n">
-        <v>171.7485537137827</v>
+        <v>171.7485537137828</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932082</v>
+        <v>479.7379918932083</v>
       </c>
       <c r="L41" t="n">
-        <v>911.7961311430092</v>
+        <v>911.7961311430097</v>
       </c>
       <c r="M41" t="n">
         <v>1398.693718110224</v>
@@ -7436,10 +7436,10 @@
         <v>2723.964736331495</v>
       </c>
       <c r="S41" t="n">
-        <v>2703.265184067728</v>
+        <v>2703.265184067727</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.416592098074</v>
+        <v>2635.416592098073</v>
       </c>
       <c r="U41" t="n">
         <v>2534.702829655339</v>
@@ -7506,7 +7506,7 @@
         <v>2360.776819362072</v>
       </c>
       <c r="P42" t="n">
-        <v>2535.315897665168</v>
+        <v>2360.776819362072</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.315897665168</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.58900179270617</v>
+        <v>87.58900179270634</v>
       </c>
       <c r="C43" t="n">
-        <v>72.10106859062256</v>
+        <v>72.10106859062267</v>
       </c>
       <c r="D43" t="n">
-        <v>72.10106859062256</v>
+        <v>72.10106859062267</v>
       </c>
       <c r="E43" t="n">
-        <v>72.10106859062256</v>
+        <v>72.10106859062267</v>
       </c>
       <c r="F43" t="n">
-        <v>72.10106859062256</v>
+        <v>72.10106859062267</v>
       </c>
       <c r="G43" t="n">
-        <v>57.55347413000761</v>
+        <v>57.55347413000766</v>
       </c>
       <c r="H43" t="n">
         <v>54.4792947266299</v>
@@ -7588,31 +7588,31 @@
         <v>786.781667498382</v>
       </c>
       <c r="Q43" t="n">
-        <v>768.6858659787847</v>
+        <v>786.781667498382</v>
       </c>
       <c r="R43" t="n">
-        <v>768.6858659787847</v>
+        <v>786.781667498382</v>
       </c>
       <c r="S43" t="n">
-        <v>711.7402732042501</v>
+        <v>711.7402732042506</v>
       </c>
       <c r="T43" t="n">
-        <v>633.7324052888059</v>
+        <v>633.7324052888064</v>
       </c>
       <c r="U43" t="n">
-        <v>500.6835176324309</v>
+        <v>500.6835176324313</v>
       </c>
       <c r="V43" t="n">
-        <v>394.0762495270897</v>
+        <v>394.07624952709</v>
       </c>
       <c r="W43" t="n">
-        <v>262.0478843807248</v>
+        <v>262.0478843807252</v>
       </c>
       <c r="X43" t="n">
-        <v>184.9234566123367</v>
+        <v>184.923456612337</v>
       </c>
       <c r="Y43" t="n">
-        <v>117.0163341408499</v>
+        <v>117.0163341408501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669375</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338418</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018764</v>
+        <v>989.7116209018775</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442191</v>
+        <v>749.0539373442202</v>
       </c>
       <c r="F44" t="n">
-        <v>489.0307829906258</v>
+        <v>489.0307829906264</v>
       </c>
       <c r="G44" t="n">
-        <v>227.5990516189935</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H44" t="n">
         <v>54.4792947266299</v>
@@ -7676,22 +7676,22 @@
         <v>2703.265184067727</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098074</v>
       </c>
       <c r="U44" t="n">
-        <v>2534.702829655339</v>
+        <v>2534.70282965534</v>
       </c>
       <c r="V44" t="n">
-        <v>2351.851591887516</v>
+        <v>2351.851591887517</v>
       </c>
       <c r="W44" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081355</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.542593939083</v>
+        <v>1915.542593939084</v>
       </c>
       <c r="Y44" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851158</v>
       </c>
     </row>
     <row r="45">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.58900179270643</v>
+        <v>107.3029779201075</v>
       </c>
       <c r="C46" t="n">
-        <v>72.10106859062273</v>
+        <v>91.81504471802381</v>
       </c>
       <c r="D46" t="n">
-        <v>72.10106859062273</v>
+        <v>91.81504471802381</v>
       </c>
       <c r="E46" t="n">
-        <v>72.10106859062273</v>
+        <v>91.81504471802381</v>
       </c>
       <c r="F46" t="n">
-        <v>72.10106859062273</v>
+        <v>91.81504471802381</v>
       </c>
       <c r="G46" t="n">
-        <v>57.55347413000769</v>
+        <v>77.2674502574088</v>
       </c>
       <c r="H46" t="n">
-        <v>54.4792947266299</v>
+        <v>74.19327085403103</v>
       </c>
       <c r="I46" t="n">
-        <v>54.4792947266299</v>
+        <v>74.19327085403103</v>
       </c>
       <c r="J46" t="n">
         <v>54.4792947266299</v>
@@ -7828,28 +7828,28 @@
         <v>786.781667498382</v>
       </c>
       <c r="R46" t="n">
-        <v>767.0676913709814</v>
+        <v>786.781667498382</v>
       </c>
       <c r="S46" t="n">
-        <v>711.7402732042509</v>
+        <v>731.4542493316517</v>
       </c>
       <c r="T46" t="n">
-        <v>633.7324052888067</v>
+        <v>653.4463814162075</v>
       </c>
       <c r="U46" t="n">
-        <v>500.6835176324316</v>
+        <v>520.3974937598325</v>
       </c>
       <c r="V46" t="n">
-        <v>394.0762495270902</v>
+        <v>413.7902256544912</v>
       </c>
       <c r="W46" t="n">
-        <v>262.0478843807253</v>
+        <v>281.7618605081263</v>
       </c>
       <c r="X46" t="n">
-        <v>184.9234566123371</v>
+        <v>204.6374327397381</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.0163341408502</v>
+        <v>136.7303102682513</v>
       </c>
     </row>
   </sheetData>
@@ -8459,13 +8459,13 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>187.1563144971595</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>186.3981141722306</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>186.9547967801209</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
@@ -8532,22 +8532,22 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>111.9961691666671</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>115.4839025616403</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>106.7151410677088</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>115.8594486111116</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>108.8542060241438</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8617,16 +8617,16 @@
         <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>112.8771994574291</v>
+        <v>112.8771994574296</v>
       </c>
       <c r="N10" t="n">
-        <v>103.744504878002</v>
+        <v>103.7445048780024</v>
       </c>
       <c r="O10" t="n">
-        <v>112.4959374921223</v>
+        <v>112.4959374921227</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>111.9040032899343</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>352.4051964243481</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>203.9089023233581</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8772,19 +8772,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>478.6877368183352</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>515.1863184416645</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>47.27246317627808</v>
       </c>
       <c r="P12" t="n">
-        <v>53.80710347724191</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8933,13 +8933,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>393.8132110494448</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>495.0402356415689</v>
+        <v>422.9396501070515</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
@@ -9009,13 +9009,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>210.101997808072</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869873</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>76.93766118339636</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,7 +9164,7 @@
         <v>101.3718027669759</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>349.2884508079966</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9173,7 +9173,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>496.4504162010619</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472578</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>154.9918226869873</v>
+        <v>439.2526901880013</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339636</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9401,7 +9401,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>230.8346538512762</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9416,10 +9416,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3383206229274</v>
+        <v>381.3518698822108</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>122.441556107355</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>75.82029131472578</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>137.2633189153679</v>
       </c>
       <c r="N21" t="n">
-        <v>243.0898773147933</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>349.2884508079949</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9647,7 +9647,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
-        <v>531.5645509948627</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.441556107355</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472578</v>
       </c>
       <c r="K24" t="n">
-        <v>235.8460399113965</v>
+        <v>159.912411657733</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9732,10 +9732,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>53.80710347724191</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339636</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,19 +9951,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472578</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356941</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>380.3953106054529</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>154.9918226869873</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10188,19 +10188,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472576</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>298.2000524358776</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>154.9918226869867</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339633</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472578</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>159.912411657733</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>154.9918226869873</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339636</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472578</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>154.9918226869868</v>
+        <v>439.2526901880002</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339636</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472578</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>159.9124116577326</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>154.9918226869868</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339636</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11154,10 +11154,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>230.1092027732991</v>
+        <v>53.80710347724191</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.93766118339636</v>
+        <v>253.2397604794536</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -23030,10 +23030,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>10.00967878293091</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>11.94294668035343</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>289.1172887419689</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>238.9952469210652</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>194.3089001745969</v>
       </c>
       <c r="F11" t="n">
         <v>321.0125464443796</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>322.4070376922379</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>289.2127067351698</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>300.6093045313686</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196315</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.4917917577426</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592891</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>34.93069063222755</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.49600542227659</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.16276991271699</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>194.2977051292231</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.098469488943194</v>
+        <v>130.8176748810939</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>158.6760125066612</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864967</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922377</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>96.37329216907176</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.3207076824129</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.0821803754515</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842793</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>163.2962484526288</v>
+        <v>163.296248452629</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.54404190196315</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.4917917577426</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>61.95871608592891</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227638</v>
+        <v>46.49600542227659</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.16276991271699</v>
       </c>
       <c r="S16" t="n">
-        <v>118.3637676193848</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>140.8174128706115</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>41.24560752542961</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.22174669378116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1088263.387218138</v>
+        <v>1088263.387218137</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268056.8210275564</v>
+        <v>268056.8210275565</v>
       </c>
       <c r="C2" t="n">
         <v>268056.8210275565</v>
@@ -26320,31 +26320,31 @@
         <v>268056.8210275566</v>
       </c>
       <c r="E2" t="n">
-        <v>234250.3793419184</v>
+        <v>234250.3793419185</v>
       </c>
       <c r="F2" t="n">
-        <v>234250.3793419184</v>
+        <v>234250.3793419185</v>
       </c>
       <c r="G2" t="n">
+        <v>268668.4211729637</v>
+      </c>
+      <c r="H2" t="n">
         <v>268668.4211729636</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>268668.4211729637</v>
       </c>
-      <c r="I2" t="n">
-        <v>268668.4211729636</v>
-      </c>
       <c r="J2" t="n">
+        <v>268668.4211729635</v>
+      </c>
+      <c r="K2" t="n">
         <v>268668.4211729634</v>
-      </c>
-      <c r="K2" t="n">
-        <v>268668.4211729633</v>
       </c>
       <c r="L2" t="n">
         <v>268668.4211729635</v>
       </c>
       <c r="M2" t="n">
-        <v>268668.4211729635</v>
+        <v>268668.4211729639</v>
       </c>
       <c r="N2" t="n">
         <v>268668.4211729635</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.412581696058623e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>367830.3395149716</v>
+        <v>367830.3395149714</v>
       </c>
       <c r="F3" t="n">
-        <v>1.543542436723198e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.83320915236</v>
+        <v>61543.8332091526</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613909</v>
+        <v>83547.74167613912</v>
       </c>
       <c r="K3" t="n">
-        <v>5.831160316509859e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915248</v>
+        <v>61543.83320915257</v>
       </c>
       <c r="M3" t="n">
         <v>149683.3109415065</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561259</v>
+        <v>20455.48779561244</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,37 +26421,37 @@
         <v>397070.1574037161</v>
       </c>
       <c r="D4" t="n">
-        <v>397070.1574037161</v>
+        <v>397070.157403716</v>
       </c>
       <c r="E4" t="n">
         <v>244219.740841413</v>
       </c>
       <c r="F4" t="n">
-        <v>244219.7408414132</v>
+        <v>244219.7408414131</v>
       </c>
       <c r="G4" t="n">
-        <v>300146.301399525</v>
+        <v>300146.3013995251</v>
       </c>
       <c r="H4" t="n">
-        <v>300146.301399525</v>
+        <v>300146.3013995251</v>
       </c>
       <c r="I4" t="n">
-        <v>300146.301399525</v>
+        <v>300146.3013995251</v>
       </c>
       <c r="J4" t="n">
+        <v>298009.3859165156</v>
+      </c>
+      <c r="K4" t="n">
         <v>298009.3859165157</v>
       </c>
-      <c r="K4" t="n">
-        <v>298009.3859165155</v>
-      </c>
       <c r="L4" t="n">
-        <v>298009.3859165157</v>
+        <v>298009.3859165156</v>
       </c>
       <c r="M4" t="n">
         <v>296992.7137695695</v>
       </c>
       <c r="N4" t="n">
-        <v>296992.7137695695</v>
+        <v>296992.7137695694</v>
       </c>
       <c r="O4" t="n">
         <v>296992.7137695695</v>
@@ -26473,40 +26473,40 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>33627.60000000003</v>
       </c>
       <c r="E5" t="n">
         <v>48881.83299975545</v>
       </c>
       <c r="F5" t="n">
-        <v>48881.83299975547</v>
+        <v>48881.83299975545</v>
       </c>
       <c r="G5" t="n">
+        <v>55349.24364233077</v>
+      </c>
+      <c r="H5" t="n">
         <v>55349.24364233076</v>
       </c>
-      <c r="H5" t="n">
-        <v>55349.24364233075</v>
-      </c>
       <c r="I5" t="n">
-        <v>55349.24364233075</v>
+        <v>55349.24364233074</v>
       </c>
       <c r="J5" t="n">
+        <v>64678.11138462553</v>
+      </c>
+      <c r="K5" t="n">
+        <v>64678.11138462555</v>
+      </c>
+      <c r="L5" t="n">
         <v>64678.11138462552</v>
       </c>
-      <c r="K5" t="n">
-        <v>64678.11138462552</v>
-      </c>
-      <c r="L5" t="n">
-        <v>64678.11138462553</v>
-      </c>
       <c r="M5" t="n">
-        <v>57153.73105654696</v>
+        <v>57153.73105654697</v>
       </c>
       <c r="N5" t="n">
         <v>57153.73105654696</v>
       </c>
       <c r="O5" t="n">
-        <v>57153.73105654697</v>
+        <v>57153.73105654696</v>
       </c>
       <c r="P5" t="n">
         <v>57153.73105654696</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-162640.9363761596</v>
+        <v>-162645.3049486268</v>
       </c>
       <c r="C6" t="n">
-        <v>-162640.9363761596</v>
+        <v>-162645.3049486268</v>
       </c>
       <c r="D6" t="n">
-        <v>-162640.9363761595</v>
+        <v>-162645.3049486267</v>
       </c>
       <c r="E6" t="n">
-        <v>-426681.5340142217</v>
+        <v>-426927.3771701575</v>
       </c>
       <c r="F6" t="n">
-        <v>-58851.19449925046</v>
+        <v>-59097.03765518605</v>
       </c>
       <c r="G6" t="n">
-        <v>-148370.9570780446</v>
+        <v>-148370.9570780448</v>
       </c>
       <c r="H6" t="n">
-        <v>-86827.12386889209</v>
+        <v>-86827.12386889226</v>
       </c>
       <c r="I6" t="n">
-        <v>-86827.12386889214</v>
+        <v>-86827.12386889213</v>
       </c>
       <c r="J6" t="n">
-        <v>-177566.8178043169</v>
+        <v>-177566.8178043168</v>
       </c>
       <c r="K6" t="n">
-        <v>-94019.07612817778</v>
+        <v>-94019.07612817787</v>
       </c>
       <c r="L6" t="n">
-        <v>-155562.9093373303</v>
+        <v>-155562.9093373302</v>
       </c>
       <c r="M6" t="n">
-        <v>-235161.3345946595</v>
+        <v>-235161.3345946592</v>
       </c>
       <c r="N6" t="n">
-        <v>-85478.02365315298</v>
+        <v>-85478.02365315281</v>
       </c>
       <c r="O6" t="n">
-        <v>-105933.5114487653</v>
+        <v>-105933.5114487652</v>
       </c>
       <c r="P6" t="n">
         <v>-85478.02365315298</v>
@@ -26695,37 +26695,37 @@
         <v>88.99713233855174</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="J2" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K2" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L2" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M2" t="n">
         <v>152.5867559728737</v>
       </c>
       <c r="N2" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="O2" t="n">
         <v>152.5867559728737</v>
       </c>
       <c r="P2" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="3">
@@ -26793,10 +26793,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
         <v>632.8664803414642</v>
@@ -26808,13 +26808,13 @@
         <v>632.8664803414641</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414638</v>
       </c>
       <c r="J4" t="n">
-        <v>874.0042625207863</v>
+        <v>874.0042625207865</v>
       </c>
       <c r="K4" t="n">
-        <v>874.0042625207863</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="L4" t="n">
         <v>874.0042625207863</v>
@@ -26917,10 +26917,10 @@
         <v>88.99713233855174</v>
       </c>
       <c r="F2" t="n">
-        <v>1.929428045903997e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144046</v>
+        <v>76.92979151144074</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451568</v>
+        <v>25.56935974451552</v>
       </c>
       <c r="K2" t="n">
-        <v>7.288950395637323e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.9297915114406</v>
+        <v>76.92979151144071</v>
       </c>
       <c r="M2" t="n">
-        <v>50.08760471691728</v>
+        <v>50.08760471691747</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451574</v>
+        <v>25.56935974451555</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793221</v>
+        <v>241.1377821793227</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.8534019035517</v>
+        <v>439.8534019035511</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>88.99713233855174</v>
       </c>
       <c r="K2" t="n">
-        <v>1.929428045903997e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144046</v>
+        <v>76.92979151144074</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451568</v>
+        <v>25.56935974451552</v>
       </c>
       <c r="P2" t="n">
-        <v>7.288950395637323e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414637</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>185.3566856159478</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27935,13 +27935,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>137.4502506396892</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>145.557729843697</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>133.3468600696239</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -27950,7 +27950,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>67.69846245683915</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>59.18642621600321</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>151.2714921173867</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>181.7198149975356</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>167.919809842936</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>151.5411742405144</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>59.45666619996855</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>258.1279513971612</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>283.2948374677744</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>228.9399394635775</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28220,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>55.88797492591266</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855194</v>
+        <v>88.99713233855174</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="I17" t="n">
         <v>150.3178400209648</v>
@@ -28612,25 +28612,25 @@
         <v>55.88797492591266</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
     </row>
     <row r="18">
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-1.094235813070554e-12</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>13.49406499825736</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="H19" t="n">
         <v>155.6301935822177</v>
@@ -28743,7 +28743,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>42.37012655389057</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="U19" t="n">
-        <v>70.24994116162611</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="I20" t="n">
         <v>150.3178400209648</v>
@@ -28849,25 +28849,25 @@
         <v>55.88797492591266</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="C22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="H22" t="n">
         <v>155.6301935822177</v>
@@ -29007,25 +29007,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103333539</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="X22" t="n">
-        <v>9.964971103334221</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="I23" t="n">
         <v>150.3178400209648</v>
@@ -29086,25 +29086,25 @@
         <v>55.88797492591266</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="H25" t="n">
         <v>155.6301935822177</v>
@@ -29241,28 +29241,28 @@
         <v>17.91484350440135</v>
       </c>
       <c r="R25" t="n">
-        <v>137.1599022512687</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9269238499924</v>
+        <v>147.1248733546022</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="U25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499925</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.964971103333937</v>
+        <v>165.9269238499925</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1485704101984879</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M26" t="n">
-        <v>102.4991512559564</v>
+        <v>0.148570410199568</v>
       </c>
       <c r="N26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P28" t="n">
-        <v>102.4991512559541</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P29" t="n">
-        <v>102.4991512559562</v>
+        <v>0.1485704102003069</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1485704101988006</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y29" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O32" t="n">
-        <v>0.1485704101984879</v>
+        <v>0.1485704101989427</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K34" t="n">
-        <v>102.4991512559535</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="35">
@@ -30159,7 +30159,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="H37" t="n">
-        <v>133.0699196067465</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I37" t="n">
         <v>135.4931377608283</v>
@@ -30189,7 +30189,7 @@
         <v>17.91484350440135</v>
       </c>
       <c r="R37" t="n">
-        <v>137.1599022512687</v>
+        <v>117.6430658851412</v>
       </c>
       <c r="S37" t="n">
         <v>152.5867559728737</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="C38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="D38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="E38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="F38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="G38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="H38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="I38" t="n">
         <v>150.3178400209648</v>
@@ -30271,25 +30271,25 @@
         <v>55.88797492591266</v>
       </c>
       <c r="S38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="T38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="U38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="V38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="W38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="X38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="H40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="I40" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>42.37012655389057</v>
+        <v>22.85329018776393</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="U40" t="n">
-        <v>133.0699196067466</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="V40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="W40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="X40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
     </row>
     <row r="41">
@@ -30660,13 +30660,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>17.91484350440135</v>
       </c>
       <c r="R43" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9847631111475</v>
+        <v>133.0699196067466</v>
       </c>
       <c r="T43" t="n">
         <v>152.5867559728737</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I44" t="n">
         <v>150.3178400209648</v>
@@ -30745,25 +30745,25 @@
         <v>55.88797492591266</v>
       </c>
       <c r="S44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,16 +30867,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I46" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J46" t="n">
-        <v>42.37012655389057</v>
+        <v>22.85329018776345</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>17.91484350440135</v>
       </c>
       <c r="R46" t="n">
-        <v>117.6430658851421</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
   </sheetData>
@@ -35179,13 +35179,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35337,16 +35337,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.837363033884704e-12</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.45379695672</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>311.1004426054803</v>
       </c>
       <c r="L11" t="n">
-        <v>245.8679803873494</v>
+        <v>436.4223628785869</v>
       </c>
       <c r="M11" t="n">
         <v>491.815744411328</v>
@@ -35428,7 +35428,7 @@
         <v>307.9382672499271</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.567931750521</v>
+        <v>81.46734621600307</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>278.3580710427828</v>
       </c>
       <c r="L12" t="n">
-        <v>432.1084713292372</v>
+        <v>428.7037592530755</v>
       </c>
       <c r="M12" t="n">
         <v>562.9739572239782</v>
       </c>
       <c r="N12" t="n">
-        <v>483.4456395432958</v>
+        <v>591.4044077482508</v>
       </c>
       <c r="O12" t="n">
-        <v>464.7485518834703</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q12" t="n">
         <v>196.1628128732075</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.45379695672</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>311.1004426054803</v>
@@ -35653,13 +35653,13 @@
         <v>436.4223628785869</v>
       </c>
       <c r="M14" t="n">
-        <v>301.2613619200905</v>
+        <v>491.815744411328</v>
       </c>
       <c r="N14" t="n">
         <v>478.2881520867285</v>
       </c>
       <c r="O14" t="n">
-        <v>398.8632430757229</v>
+        <v>326.7626575412054</v>
       </c>
       <c r="P14" t="n">
         <v>307.9382672499271</v>
@@ -35729,13 +35729,13 @@
         <v>278.3580710427828</v>
       </c>
       <c r="L15" t="n">
-        <v>160.1180202428123</v>
+        <v>432.1084713292372</v>
       </c>
       <c r="M15" t="n">
         <v>562.9739572239782</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4044077482508</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O15" t="n">
         <v>464.7485518834703</v>
@@ -35744,7 +35744,7 @@
         <v>360.1944957546764</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>196.1628128732075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466136</v>
+        <v>46.62700578466116</v>
       </c>
       <c r="K16" t="n">
-        <v>151.0191897391238</v>
+        <v>151.0191897391236</v>
       </c>
       <c r="L16" t="n">
-        <v>226.5511725703758</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M16" t="n">
-        <v>246.0664065699381</v>
+        <v>246.066406569938</v>
       </c>
       <c r="N16" t="n">
-        <v>245.5987790526332</v>
+        <v>245.598779052633</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511276</v>
+        <v>222.6152580511274</v>
       </c>
       <c r="P16" t="n">
-        <v>181.8313544842263</v>
+        <v>181.8313544842261</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415059</v>
+        <v>71.08228883415039</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>311.1004426054803</v>
+        <v>238.9998570709629</v>
       </c>
       <c r="L17" t="n">
         <v>436.4223628785869</v>
@@ -35893,7 +35893,7 @@
         <v>491.815744411328</v>
       </c>
       <c r="N17" t="n">
-        <v>406.1875665522111</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O17" t="n">
         <v>398.8632430757229</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.09805462780571</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>278.3580710427828</v>
@@ -35972,7 +35972,7 @@
         <v>562.9739572239782</v>
       </c>
       <c r="N18" t="n">
-        <v>123.2511437886185</v>
+        <v>407.5120112896326</v>
       </c>
       <c r="O18" t="n">
         <v>464.7485518834703</v>
@@ -35981,7 +35981,7 @@
         <v>360.1944957546764</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.1628128732075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>118.45379695672</v>
       </c>
       <c r="K20" t="n">
-        <v>120.5460601142424</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L20" t="n">
         <v>436.4223628785869</v>
@@ -36136,10 +36136,10 @@
         <v>398.8632430757229</v>
       </c>
       <c r="P20" t="n">
-        <v>307.9382672499271</v>
+        <v>270.9518165092105</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.567931750521</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>88.09805462780571</v>
       </c>
       <c r="K21" t="n">
         <v>278.3580710427828</v>
@@ -36206,10 +36206,10 @@
         <v>432.1084713292372</v>
       </c>
       <c r="M21" t="n">
-        <v>562.9739572239782</v>
+        <v>94.82069326434616</v>
       </c>
       <c r="N21" t="n">
-        <v>211.3491984164245</v>
+        <v>591.4044077482508</v>
       </c>
       <c r="O21" t="n">
         <v>464.7485518834703</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>118.45379695672</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>311.1004426054803</v>
+        <v>238.9998570709611</v>
       </c>
       <c r="L23" t="n">
         <v>436.4223628785869</v>
@@ -36367,7 +36367,7 @@
         <v>491.815744411328</v>
       </c>
       <c r="N23" t="n">
-        <v>441.3017013460119</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O23" t="n">
         <v>398.8632430757229</v>
@@ -36376,7 +36376,7 @@
         <v>307.9382672499271</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09805462780571</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>170.3993028378271</v>
+        <v>94.46567458416359</v>
       </c>
       <c r="L24" t="n">
         <v>432.1084713292372</v>
@@ -36452,10 +36452,10 @@
         <v>464.7485518834703</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q24" t="n">
-        <v>196.1628128732075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.9529482126764</v>
+        <v>220.9529482126763</v>
       </c>
       <c r="K26" t="n">
-        <v>413.5995938614367</v>
+        <v>413.5995938614366</v>
       </c>
       <c r="L26" t="n">
-        <v>436.5709332887853</v>
+        <v>538.9215141345431</v>
       </c>
       <c r="M26" t="n">
-        <v>594.3148956672843</v>
+        <v>491.9643148215275</v>
       </c>
       <c r="N26" t="n">
-        <v>580.7873033426849</v>
+        <v>580.7873033426848</v>
       </c>
       <c r="O26" t="n">
-        <v>501.3623943316792</v>
+        <v>501.3623943316791</v>
       </c>
       <c r="P26" t="n">
         <v>410.4374185058834</v>
       </c>
       <c r="Q26" t="n">
-        <v>256.0670830064774</v>
+        <v>256.0670830064773</v>
       </c>
       <c r="R26" t="n">
-        <v>46.6111763300437</v>
+        <v>46.61117633004361</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.09805462780571</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>278.3580710427828</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>432.1084713292372</v>
+        <v>330.4113330401932</v>
       </c>
       <c r="M27" t="n">
         <v>562.9739572239782</v>
       </c>
       <c r="N27" t="n">
-        <v>123.2511437886185</v>
+        <v>591.4044077482508</v>
       </c>
       <c r="O27" t="n">
         <v>464.7485518834703</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206579</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K28" t="n">
-        <v>164.5212086565283</v>
+        <v>164.5212086565282</v>
       </c>
       <c r="L28" t="n">
-        <v>240.0531914877802</v>
+        <v>240.0531914877801</v>
       </c>
       <c r="M28" t="n">
-        <v>259.5684254873426</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N28" t="n">
-        <v>259.1007979700377</v>
+        <v>259.1007979700375</v>
       </c>
       <c r="O28" t="n">
-        <v>236.117276968532</v>
+        <v>236.1172769685319</v>
       </c>
       <c r="P28" t="n">
-        <v>195.3333734016285</v>
+        <v>195.3333734016307</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.58430775155502</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.9529482126763</v>
+        <v>220.9529482126764</v>
       </c>
       <c r="K29" t="n">
         <v>413.5995938614367</v>
       </c>
       <c r="L29" t="n">
-        <v>538.9215141345431</v>
+        <v>538.9215141345433</v>
       </c>
       <c r="M29" t="n">
         <v>594.3148956672843</v>
       </c>
       <c r="N29" t="n">
-        <v>580.7873033426848</v>
+        <v>580.7873033426849</v>
       </c>
       <c r="O29" t="n">
         <v>501.3623943316792</v>
       </c>
       <c r="P29" t="n">
-        <v>410.4374185058834</v>
+        <v>308.0868376601275</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.7165021607199</v>
+        <v>256.0670830064774</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004362</v>
+        <v>46.61117633004366</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.09805462780572</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>278.3580710427829</v>
       </c>
       <c r="L30" t="n">
-        <v>432.1084713292373</v>
+        <v>248.2160748706179</v>
       </c>
       <c r="M30" t="n">
         <v>562.9739572239782</v>
       </c>
       <c r="N30" t="n">
-        <v>123.2511437886181</v>
+        <v>591.4044077482508</v>
       </c>
       <c r="O30" t="n">
         <v>464.7485518834703</v>
@@ -36929,7 +36929,7 @@
         <v>360.1944957546764</v>
       </c>
       <c r="Q30" t="n">
-        <v>196.1628128732075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206569</v>
+        <v>60.12902470206573</v>
       </c>
       <c r="K31" t="n">
         <v>164.5212086565282</v>
@@ -36996,19 +36996,19 @@
         <v>240.0531914877802</v>
       </c>
       <c r="M31" t="n">
-        <v>259.5684254873425</v>
+        <v>259.5684254873426</v>
       </c>
       <c r="N31" t="n">
-        <v>259.1007979700375</v>
+        <v>259.1007979700377</v>
       </c>
       <c r="O31" t="n">
-        <v>236.1172769685319</v>
+        <v>236.117276968532</v>
       </c>
       <c r="P31" t="n">
         <v>195.3333734016307</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.58430775155492</v>
+        <v>84.58430775155496</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.9529482126765</v>
+        <v>220.9529482126763</v>
       </c>
       <c r="K32" t="n">
-        <v>413.5995938614367</v>
+        <v>413.5995938614366</v>
       </c>
       <c r="L32" t="n">
-        <v>538.9215141345433</v>
+        <v>538.9215141345431</v>
       </c>
       <c r="M32" t="n">
-        <v>594.3148956672844</v>
+        <v>594.3148956672842</v>
       </c>
       <c r="N32" t="n">
-        <v>580.7873033426849</v>
+        <v>580.7873033426848</v>
       </c>
       <c r="O32" t="n">
-        <v>399.0118134859214</v>
+        <v>399.0118134859218</v>
       </c>
       <c r="P32" t="n">
-        <v>410.4374185058835</v>
+        <v>410.4374185058834</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.0670830064774</v>
+        <v>256.0670830064773</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004373</v>
+        <v>46.61117633004361</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09805462780571</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>278.3580710427828</v>
+        <v>94.46567458416358</v>
       </c>
       <c r="L33" t="n">
         <v>432.1084713292372</v>
@@ -37157,7 +37157,7 @@
         <v>562.9739572239782</v>
       </c>
       <c r="N33" t="n">
-        <v>123.2511437886185</v>
+        <v>591.4044077482508</v>
       </c>
       <c r="O33" t="n">
         <v>464.7485518834703</v>
@@ -37166,7 +37166,7 @@
         <v>360.1944957546764</v>
       </c>
       <c r="Q33" t="n">
-        <v>196.1628128732075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206582</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5212086565254</v>
+        <v>164.5212086565282</v>
       </c>
       <c r="L34" t="n">
-        <v>240.0531914877802</v>
+        <v>240.0531914877801</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5684254873426</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N34" t="n">
-        <v>259.1007979700377</v>
+        <v>259.1007979700375</v>
       </c>
       <c r="O34" t="n">
-        <v>236.1172769685321</v>
+        <v>236.1172769685319</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016308</v>
+        <v>195.3333734016307</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58430775155504</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09805462780571</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>278.3580710427828</v>
@@ -37394,7 +37394,7 @@
         <v>562.9739572239782</v>
       </c>
       <c r="N36" t="n">
-        <v>123.2511437886181</v>
+        <v>407.5120112896315</v>
       </c>
       <c r="O36" t="n">
         <v>464.7485518834703</v>
@@ -37403,7 +37403,7 @@
         <v>360.1944957546764</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.1628128732075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.09805462780571</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>278.3580710427828</v>
+        <v>94.4656745841632</v>
       </c>
       <c r="L39" t="n">
         <v>432.1084713292372</v>
@@ -37631,7 +37631,7 @@
         <v>562.9739572239782</v>
       </c>
       <c r="N39" t="n">
-        <v>123.2511437886181</v>
+        <v>591.4044077482508</v>
       </c>
       <c r="O39" t="n">
         <v>464.7485518834703</v>
@@ -37640,7 +37640,7 @@
         <v>360.1944957546764</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.1628128732075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37874,10 +37874,10 @@
         <v>464.7485518834703</v>
       </c>
       <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>176.3020992960572</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
